--- a/Keys_ALL.xlsx
+++ b/Keys_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hty\creat\code\github\NCBI-SRA-Search-script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54214493-85DD-4C2C-9FD4-E6277BF67621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD16B0B-82FA-46AF-A58D-516E5C27095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4370" yWindow="1780" windowWidth="17750" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="370" yWindow="-110" windowWidth="38140" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,11 +373,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="24.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.26953125" style="1"/>
@@ -385,7 +385,7 @@
     <col min="4" max="16384" width="6.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -393,7 +393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -409,183 +409,183 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="C48" s="2"/>
     </row>

--- a/Keys_ALL.xlsx
+++ b/Keys_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hty\creat\code\github\NCBI-SRA-Search-script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD16B0B-82FA-46AF-A58D-516E5C27095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474678E-CD68-44EA-B9B5-B4A4730A771B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="370" yWindow="-110" windowWidth="38140" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>Trichlorophenol </t>
-  </si>
-  <si>
     <t>trichloromethane</t>
   </si>
   <si>
@@ -33,6 +30,10 @@
   </si>
   <si>
     <t>Need keys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trichlorophenol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +375,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="24.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -387,26 +388,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
